--- a/results/results_etwfe.xlsx
+++ b/results/results_etwfe.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,34 +494,34 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.02155612886790239</v>
+        <v>0.02127490112058554</v>
       </c>
       <c r="E3">
-        <v>0.005335187245319066</v>
+        <v>0.009637308697300151</v>
       </c>
       <c r="F3">
-        <v>4.040369695893071</v>
+        <v>2.207556257541652</v>
       </c>
       <c r="G3">
-        <v>5.336700960206229E-05</v>
+        <v>0.02727522124239789</v>
       </c>
       <c r="H3">
-        <v>14.19369230165557</v>
+        <v>5.196265290787135</v>
       </c>
       <c r="I3">
-        <v>0.01109935401629956</v>
+        <v>0.00238612316598262</v>
       </c>
       <c r="J3">
-        <v>0.03201290371950521</v>
+        <v>0.04016367907518845</v>
       </c>
       <c r="K3">
-        <v>0.00545919575074319</v>
+        <v>-0.003318075916284538</v>
       </c>
       <c r="L3">
-        <v>0.1359823168888637</v>
+        <v>0.07041839900395666</v>
       </c>
       <c r="M3">
-        <v>0.1359823168888637</v>
+        <v>0.07041839900395666</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -544,34 +544,34 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>-0.01571754366258611</v>
+        <v>-0.01632660070297074</v>
       </c>
       <c r="E4">
-        <v>0.005052873082100709</v>
+        <v>0.004615867947061692</v>
       </c>
       <c r="F4">
-        <v>-3.110615170261037</v>
+        <v>-3.537059744823011</v>
       </c>
       <c r="G4">
-        <v>0.001866980745959115</v>
+        <v>0.0004046081278378634</v>
       </c>
       <c r="H4">
-        <v>9.065077235433556</v>
+        <v>11.27118707825533</v>
       </c>
       <c r="I4">
-        <v>-0.0256209929219554</v>
+        <v>-0.02537353563660449</v>
       </c>
       <c r="J4">
-        <v>-0.005814094403216823</v>
+        <v>-0.007279665769336993</v>
       </c>
       <c r="K4">
-        <v>0.09233303164206866</v>
+        <v>0.09378940162864874</v>
       </c>
       <c r="L4">
-        <v>0.06525379621973898</v>
+        <v>0.06525379626337556</v>
       </c>
       <c r="M4">
-        <v>0.06525379621973898</v>
+        <v>0.06525379626337556</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -594,34 +594,34 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.0144181085658426</v>
+        <v>-0.001704950251304671</v>
       </c>
       <c r="E5">
-        <v>0.002714327113138783</v>
+        <v>0.003078728525060016</v>
       </c>
       <c r="F5">
-        <v>-5.311853717280907</v>
+        <v>-0.5537838875454064</v>
       </c>
       <c r="G5">
-        <v>1.085156966253691E-07</v>
+        <v>0.5797267565359773</v>
       </c>
       <c r="H5">
-        <v>23.13559292287187</v>
+        <v>0.7865550220212709</v>
       </c>
       <c r="I5">
-        <v>-0.01973809194985519</v>
+        <v>-0.007739147278598423</v>
       </c>
       <c r="J5">
-        <v>-0.009098125181830004</v>
+        <v>0.004329246775989081</v>
       </c>
       <c r="K5">
-        <v>-0.001837245677074564</v>
+        <v>-0.003622138249011378</v>
       </c>
       <c r="L5">
-        <v>-0.01504252000695972</v>
+        <v>-0.01504252002459323</v>
       </c>
       <c r="M5">
-        <v>-0.01504252000695972</v>
+        <v>-0.01504252002459323</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -644,34 +644,34 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.01419797152808929</v>
+        <v>-0.002279114553428938</v>
       </c>
       <c r="E6">
-        <v>0.008412353194764936</v>
+        <v>0.004816375997271361</v>
       </c>
       <c r="F6">
-        <v>-1.68775266555912</v>
+        <v>-0.4732011277192921</v>
       </c>
       <c r="G6">
-        <v>0.09145871740554264</v>
+        <v>0.6360696932889784</v>
       </c>
       <c r="H6">
-        <v>3.450735502486811</v>
+        <v>0.6527432465886778</v>
       </c>
       <c r="I6">
-        <v>-0.03068588081505903</v>
+        <v>-0.01171903804408399</v>
       </c>
       <c r="J6">
-        <v>0.00228993775888044</v>
+        <v>0.007160808937226114</v>
       </c>
       <c r="K6">
-        <v>0.1030478924179953</v>
+        <v>0.05651366998450564</v>
       </c>
       <c r="L6">
-        <v>0.1475748897479088</v>
+        <v>0.01531161700788678</v>
       </c>
       <c r="M6">
-        <v>0.1475748897479088</v>
+        <v>0.01531161700788678</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -694,34 +694,34 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.01169644761075407</v>
+        <v>-0.01762343745531121</v>
       </c>
       <c r="E7">
-        <v>0.008408962742527181</v>
+        <v>0.002607729822190956</v>
       </c>
       <c r="F7">
-        <v>-1.390950105130194</v>
+        <v>-6.758153128188868</v>
       </c>
       <c r="G7">
-        <v>0.1642405573801406</v>
+        <v>1.397617786797268e-11</v>
       </c>
       <c r="H7">
-        <v>2.606117666272437</v>
+        <v>36.05823916980344</v>
       </c>
       <c r="I7">
-        <v>-0.0281777117334465</v>
+        <v>-0.02273449398821652</v>
       </c>
       <c r="J7">
-        <v>0.004784816511938361</v>
+        <v>-0.01251238092240589</v>
       </c>
       <c r="K7">
-        <v>0.08630238716333262</v>
+        <v>0.1137401641121307</v>
       </c>
       <c r="L7">
-        <v>0.07099914944298401</v>
+        <v>0.09768656521918798</v>
       </c>
       <c r="M7">
-        <v>0.07099914944298401</v>
+        <v>0.09768656521918798</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -744,34 +744,34 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.005513117470002138</v>
+        <v>-0.002249790581298477</v>
       </c>
       <c r="E8">
-        <v>0.004510888801180892</v>
+        <v>0.00237287941619761</v>
       </c>
       <c r="F8">
-        <v>-1.22217986587452</v>
+        <v>-0.9481268057454113</v>
       </c>
       <c r="G8">
-        <v>0.2216396160735933</v>
+        <v>0.3430649033759668</v>
       </c>
       <c r="H8">
-        <v>2.173712321782138</v>
+        <v>1.54344655370573</v>
       </c>
       <c r="I8">
-        <v>-0.01435429705858174</v>
+        <v>-0.006900548776702221</v>
       </c>
       <c r="J8">
-        <v>0.003328062118577469</v>
+        <v>0.002400967614105267</v>
       </c>
       <c r="K8">
-        <v>0.07955803529930539</v>
+        <v>0.1134885181095984</v>
       </c>
       <c r="L8">
-        <v>0.04967447550694626</v>
+        <v>0.1070713168802467</v>
       </c>
       <c r="M8">
-        <v>0.04967447550694626</v>
+        <v>0.1070713168802467</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -794,34 +794,34 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.006165598124289996</v>
+        <v>0.007492929829448995</v>
       </c>
       <c r="E9">
-        <v>0.002565257073881591</v>
+        <v>0.002536685806343296</v>
       </c>
       <c r="F9">
-        <v>2.403501070931885</v>
+        <v>2.953826528579929</v>
       </c>
       <c r="G9">
-        <v>0.01623891945025782</v>
+        <v>0.003138603767128705</v>
       </c>
       <c r="H9">
-        <v>5.944400552055739</v>
+        <v>8.315661377207643</v>
       </c>
       <c r="I9">
-        <v>0.001137786648395474</v>
+        <v>0.002521117008922189</v>
       </c>
       <c r="J9">
-        <v>0.01119340960018452</v>
+        <v>0.0124647426499758</v>
       </c>
       <c r="K9">
-        <v>0.01762673178312398</v>
+        <v>0.102556863821871</v>
       </c>
       <c r="L9">
-        <v>0.01503949332953693</v>
+        <v>0.05712862926457481</v>
       </c>
       <c r="M9">
-        <v>0.01503949332953693</v>
+        <v>0.05712862926457481</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,34 +844,34 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.01101575105427029</v>
+        <v>0.01165760107640122</v>
       </c>
       <c r="E10">
-        <v>0.002233840818812908</v>
+        <v>0.002286938759459981</v>
       </c>
       <c r="F10">
-        <v>4.931305293330703</v>
+        <v>5.097469719370165</v>
       </c>
       <c r="G10">
-        <v>8.16819587300978E-07</v>
+        <v>3.442234553874435e-07</v>
       </c>
       <c r="H10">
-        <v>20.22347920181173</v>
+        <v>21.47015125823892</v>
       </c>
       <c r="I10">
-        <v>0.006637503502201523</v>
+        <v>0.007175283473010951</v>
       </c>
       <c r="J10">
-        <v>0.01539399860633905</v>
+        <v>0.01613991867979149</v>
       </c>
       <c r="K10">
-        <v>0.03703857706320127</v>
+        <v>0.03560613604998429</v>
       </c>
       <c r="L10">
-        <v>0.03508719700609832</v>
+        <v>0.03508719700828395</v>
       </c>
       <c r="M10">
-        <v>0.03508719700609832</v>
+        <v>0.03508719700828395</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -894,34 +894,34 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.004270929374529326</v>
+        <v>0.004830408193633992</v>
       </c>
       <c r="E11">
-        <v>137.0261660788388</v>
+        <v>0.001936224675352658</v>
       </c>
       <c r="F11">
-        <v>3.116871395257474E-05</v>
+        <v>2.49475603483578</v>
       </c>
       <c r="G11">
-        <v>0.9999751309643612</v>
+        <v>0.01260437571261126</v>
       </c>
       <c r="H11">
-        <v>3.587888052622785E-05</v>
+        <v>6.309931525653951</v>
       </c>
       <c r="I11">
-        <v>-268.5620795247535</v>
+        <v>0.001035477563965025</v>
       </c>
       <c r="J11">
-        <v>268.5706213835025</v>
+        <v>0.00862533882330296</v>
       </c>
       <c r="K11">
-        <v>0.02622079204958014</v>
+        <v>0.02770639131288043</v>
       </c>
       <c r="L11">
-        <v>0.02516288541228925</v>
+        <v>0.02516871955978912</v>
       </c>
       <c r="M11">
-        <v>0.02516288541228925</v>
+        <v>0.02516871955978912</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -944,34 +944,34 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>-0.003716147218231759</v>
+        <v>-0.002691999197308228</v>
       </c>
       <c r="E12">
-        <v>0.005194922527521029</v>
+        <v>0.002491264243547588</v>
       </c>
       <c r="F12">
-        <v>-0.7153421823992189</v>
+        <v>-1.080575536810495</v>
       </c>
       <c r="G12">
-        <v>0.4743976294002722</v>
+        <v>0.2798859692586598</v>
       </c>
       <c r="H12">
-        <v>1.075831294238303</v>
+        <v>1.837088928763647</v>
       </c>
       <c r="I12">
-        <v>-0.01389800827464876</v>
+        <v>-0.007574787390633922</v>
       </c>
       <c r="J12">
-        <v>0.006465713838185243</v>
+        <v>0.002190788996017466</v>
       </c>
       <c r="K12">
-        <v>0.05699356183152272</v>
+        <v>0.03442079893739353</v>
       </c>
       <c r="L12">
-        <v>0.04684783427615635</v>
+        <v>0.02910604637571218</v>
       </c>
       <c r="M12">
-        <v>0.04684783427615635</v>
+        <v>0.02910604637571218</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -994,34 +994,34 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0006432413477028566</v>
+        <v>0.0004432216325419325</v>
       </c>
       <c r="E13">
-        <v>0.001296537298398983</v>
+        <v>0.001117981284426663</v>
       </c>
       <c r="F13">
-        <v>0.4961225168741055</v>
+        <v>0.3964481684228112</v>
       </c>
       <c r="G13">
-        <v>0.619807973668374</v>
+        <v>0.6917744375458132</v>
       </c>
       <c r="H13">
-        <v>0.6901067799473812</v>
+        <v>0.5316263906695151</v>
       </c>
       <c r="I13">
-        <v>-0.001897925061772011</v>
+        <v>-0.001747981420324157</v>
       </c>
       <c r="J13">
-        <v>0.003184407757177724</v>
+        <v>0.002634424685408022</v>
       </c>
       <c r="K13">
-        <v>0.08153822755209364</v>
+        <v>0.08092035442594966</v>
       </c>
       <c r="L13">
-        <v>0.08978866676804491</v>
+        <v>0.08978866681137383</v>
       </c>
       <c r="M13">
-        <v>0.08978866676804491</v>
+        <v>0.08978866681137383</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1094,34 +1094,34 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-0.001581899800360098</v>
+        <v>-0.004348128228118703</v>
       </c>
       <c r="E15">
-        <v>0.002162871840226853</v>
+        <v>0.0014975794881536</v>
       </c>
       <c r="F15">
-        <v>-0.7313885968362233</v>
+        <v>-2.903437355087982</v>
       </c>
       <c r="G15">
-        <v>0.4645418284168993</v>
+        <v>0.003690908031192419</v>
       </c>
       <c r="H15">
-        <v>1.106119588844092</v>
+        <v>8.081808495221528</v>
       </c>
       <c r="I15">
-        <v>-0.005821050710380599</v>
+        <v>-0.007283330088885688</v>
       </c>
       <c r="J15">
-        <v>0.002657251109660403</v>
+        <v>-0.001412926367351719</v>
       </c>
       <c r="K15">
-        <v>0.006455818169075117</v>
+        <v>0.01099685264655938</v>
       </c>
       <c r="L15">
-        <v>1.21722234288496E-09</v>
+        <v>-0.05591793491820665</v>
       </c>
       <c r="M15">
-        <v>1.21722234288496E-09</v>
+        <v>-0.05591793491820665</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1144,34 +1144,34 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>-0.0008641100442017744</v>
+        <v>0.01250214868998418</v>
       </c>
       <c r="E16">
-        <v>0.00679126377275492</v>
+        <v>0.002119987689094097</v>
       </c>
       <c r="F16">
-        <v>-0.1272384747693643</v>
+        <v>5.897274193760312</v>
       </c>
       <c r="G16">
-        <v>0.8987516543777454</v>
+        <v>3.695554823828386e-09</v>
       </c>
       <c r="H16">
-        <v>0.1540055736910627</v>
+        <v>28.01156187757248</v>
       </c>
       <c r="I16">
-        <v>-0.01417474244831302</v>
+        <v>0.008347049171691451</v>
       </c>
       <c r="J16">
-        <v>0.01244652235990948</v>
+        <v>0.0166572482082769</v>
       </c>
       <c r="K16">
-        <v>0.1151131381759433</v>
+        <v>0.1626804309571612</v>
       </c>
       <c r="L16">
-        <v>0.2688964166734749</v>
+        <v>0.1771239306783902</v>
       </c>
       <c r="M16">
-        <v>0.2688964166734749</v>
+        <v>0.1771239306783902</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1194,34 +1194,34 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>-0.002043440494447588</v>
+        <v>-0.002094025317147436</v>
       </c>
       <c r="E17">
-        <v>0.004638557288074728</v>
+        <v>0.005744489227513025</v>
       </c>
       <c r="F17">
-        <v>-0.4405336330977461</v>
+        <v>-0.3645276776076412</v>
       </c>
       <c r="G17">
-        <v>0.6595506583919236</v>
+        <v>0.7154640097112046</v>
       </c>
       <c r="H17">
-        <v>0.6004446214544921</v>
+        <v>0.4830488986092082</v>
       </c>
       <c r="I17">
-        <v>-0.01113484571929984</v>
+        <v>-0.01335301731265128</v>
       </c>
       <c r="J17">
-        <v>0.00704796473040466</v>
+        <v>0.009164966678356408</v>
       </c>
       <c r="K17">
-        <v>0.2037853293429439</v>
+        <v>0.1916210255185692</v>
       </c>
       <c r="L17">
-        <v>0.2080500377612534</v>
+        <v>0.1726136694407952</v>
       </c>
       <c r="M17">
-        <v>0.2080500377612534</v>
+        <v>0.1726136694407952</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1294,38 +1294,288 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>-0.0341788993006289</v>
+        <v>-0.02675850146984144</v>
       </c>
       <c r="E19">
-        <v>0.0129879522557953</v>
+        <v>0.01275490666076011</v>
       </c>
       <c r="F19">
-        <v>-2.631584920200033</v>
+        <v>-2.09789865041998</v>
       </c>
       <c r="G19">
-        <v>0.008498762477263985</v>
+        <v>0.03591409926742148</v>
       </c>
       <c r="H19">
-        <v>6.878531501987456</v>
+        <v>4.799305856870923</v>
       </c>
       <c r="I19">
-        <v>-0.05963481795491343</v>
+        <v>-0.0517576591511013</v>
       </c>
       <c r="J19">
-        <v>-0.008722980646344376</v>
+        <v>-0.001759343788581589</v>
       </c>
       <c r="K19">
-        <v>0.06125383550335434</v>
+        <v>0.0567035651419726</v>
       </c>
       <c r="L19">
-        <v>0.000640142754192434</v>
+        <v>0.0006401424771772246</v>
       </c>
       <c r="M19">
-        <v>0.000640142754192434</v>
+        <v>0.0006401424771772246</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>-0.01100303872196291</v>
+      </c>
+      <c r="E20">
+        <v>0.0003467893404023084</v>
+      </c>
+      <c r="F20">
+        <v>-31.72830718844571</v>
+      </c>
+      <c r="G20">
+        <v>6.325414203347426e-221</v>
+      </c>
+      <c r="H20">
+        <v>731.4849490160631</v>
+      </c>
+      <c r="I20">
+        <v>-0.01168273333937383</v>
+      </c>
+      <c r="J20">
+        <v>-0.01032334410455198</v>
+      </c>
+      <c r="K20">
+        <v>0.006623600597071254</v>
+      </c>
+      <c r="L20">
+        <v>-5.217821834324621e-12</v>
+      </c>
+      <c r="M20">
+        <v>-5.217821834324621e-12</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>-0.01039670260214538</v>
+      </c>
+      <c r="E21">
+        <v>0.004960400408072703</v>
+      </c>
+      <c r="F21">
+        <v>-2.095940195719981</v>
+      </c>
+      <c r="G21">
+        <v>0.03608749642635108</v>
+      </c>
+      <c r="H21">
+        <v>4.792357130179719</v>
+      </c>
+      <c r="I21">
+        <v>-0.02011890875086566</v>
+      </c>
+      <c r="J21">
+        <v>-0.0006744964534250945</v>
+      </c>
+      <c r="K21">
+        <v>0.04861009210183137</v>
+      </c>
+      <c r="L21">
+        <v>0.1125309263129869</v>
+      </c>
+      <c r="M21">
+        <v>0.1125309263129869</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.001508262584365542</v>
+      </c>
+      <c r="E22">
+        <v>0.007418851665910349</v>
+      </c>
+      <c r="F22">
+        <v>0.2033013534016342</v>
+      </c>
+      <c r="G22">
+        <v>0.8388994977558034</v>
+      </c>
+      <c r="H22">
+        <v>0.2534301123203328</v>
+      </c>
+      <c r="I22">
+        <v>-0.01303241948746372</v>
+      </c>
+      <c r="J22">
+        <v>0.01604894465619481</v>
+      </c>
+      <c r="K22">
+        <v>-0.0007629346578752125</v>
+      </c>
+      <c r="L22">
+        <v>-0.007017672305101873</v>
+      </c>
+      <c r="M22">
+        <v>-0.007017672305101873</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>TON</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.00897781565972831</v>
+      </c>
+      <c r="E23">
+        <v>0.00458930327663034</v>
+      </c>
+      <c r="F23">
+        <v>1.956248066116084</v>
+      </c>
+      <c r="G23">
+        <v>0.05043593878049932</v>
+      </c>
+      <c r="H23">
+        <v>4.309404078603468</v>
+      </c>
+      <c r="I23">
+        <v>-1.705347659881548e-05</v>
+      </c>
+      <c r="J23">
+        <v>0.01797268479605544</v>
+      </c>
+      <c r="K23">
+        <v>0.03651615441967725</v>
+      </c>
+      <c r="L23">
+        <v>0.03651615441967725</v>
+      </c>
+      <c r="M23">
+        <v>0.03651615441967725</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>VUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-0.009703281855893671</v>
+      </c>
+      <c r="E24">
+        <v>0.003136123158556617</v>
+      </c>
+      <c r="F24">
+        <v>-3.094037244493788</v>
+      </c>
+      <c r="G24">
+        <v>0.001974526972713695</v>
+      </c>
+      <c r="H24">
+        <v>8.984277209021586</v>
+      </c>
+      <c r="I24">
+        <v>-0.01584997029774664</v>
+      </c>
+      <c r="J24">
+        <v>-0.003556593414040706</v>
+      </c>
+      <c r="K24">
+        <v>0.04979856134484369</v>
+      </c>
+      <c r="L24">
+        <v>0.03333980784335767</v>
+      </c>
+      <c r="M24">
+        <v>0.03333980784335767</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ZWE</t>
         </is>
       </c>
     </row>
